--- a/examples/test_pore_size_with_Excel.xlsx
+++ b/examples/test_pore_size_with_Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA1AA11-8401-C242-A8F2-C53DA2520184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D72B88E-F710-E148-914A-610F05617512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1200" windowWidth="24880" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1200" windowWidth="24880" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File information" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
